--- a/biology/Zoologie/Couleuvre_obscure/Couleuvre_obscure.xlsx
+++ b/biology/Zoologie/Couleuvre_obscure/Couleuvre_obscure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pantherophis spiloides
-Pantherophis spiloides, la Couleuvre obscure, est une espèce de serpents de la famille des Colubridae[1]. La photo de droite montre un couleuvre obscure juvénile. L'adulte est de couleur noire sur la moitié supérieur du corps.
+Pantherophis spiloides, la Couleuvre obscure, est une espèce de serpents de la famille des Colubridae. La photo de droite montre un couleuvre obscure juvénile. L'adulte est de couleur noire sur la moitié supérieur du corps.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'est des États-Unis et en Ontario au Canada[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'est des États-Unis et en Ontario au Canada.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Duméril, Bibron &amp; Duméril, 1854 : Erpétologie générale ou histoire naturelle complète des reptiles. Tome septième. Deuxième partie, p. 781-1536 (texte intégral).</t>
         </is>
